--- a/TemplateExportAnagraficaPerAnnoMin.xlsx
+++ b/TemplateExportAnagraficaPerAnnoMin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22131734-0890-6A46-A9D3-D76AFA5A4F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E50F35-DFB6-CF4D-8E76-BE66DEE8F611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27180" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,27 +110,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -154,9 +139,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -164,20 +146,23 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,60 +468,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="2" customWidth="1"/>
     <col min="5" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="4"/>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="3"/>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="5" spans="1:10" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
